--- a/other/配置表/d-道具配置表.xlsx
+++ b/other/配置表/d-道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>id</t>
   </si>
@@ -211,18 +211,27 @@
   <si>
     <t>describe</t>
   </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>skill_56_204</t>
+  </si>
+  <si>
+    <t>asdfasjd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,12 +241,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -245,6 +292,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -267,48 +338,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,6 +354,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -329,54 +371,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,187 +393,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,26 +626,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,153 +666,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,13 +1186,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1216,6 +1221,32 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-道具配置表.xlsx
+++ b/other/配置表/d-道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="13680" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
           </rPr>
           <t xml:space="preserve">
 道具类型
-</t>
+1：材料道具</t>
         </r>
       </text>
     </comment>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>id</t>
   </si>
@@ -212,13 +212,139 @@
     <t>describe</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>skill_56_204</t>
-  </si>
-  <si>
-    <t>asdfasjd</t>
+    <t>水魔尘</t>
+  </si>
+  <si>
+    <t>item_1000001</t>
+  </si>
+  <si>
+    <t>蕴含水魔力的魔法尘埃</t>
+  </si>
+  <si>
+    <t>金魔尘</t>
+  </si>
+  <si>
+    <t>item_1000002</t>
+  </si>
+  <si>
+    <t>蕴含金魔力的魔法尘埃</t>
+  </si>
+  <si>
+    <t>木魔尘</t>
+  </si>
+  <si>
+    <t>item_1000003</t>
+  </si>
+  <si>
+    <t>蕴含木魔力的魔法尘埃</t>
+  </si>
+  <si>
+    <t>土魔尘</t>
+  </si>
+  <si>
+    <t>item_1000004</t>
+  </si>
+  <si>
+    <t>蕴含土魔力的魔法尘埃</t>
+  </si>
+  <si>
+    <t>火魔尘</t>
+  </si>
+  <si>
+    <t>item_1000005</t>
+  </si>
+  <si>
+    <t>蕴含火魔力的魔法尘埃</t>
+  </si>
+  <si>
+    <t>水魔锭</t>
+  </si>
+  <si>
+    <t>item_1000006</t>
+  </si>
+  <si>
+    <t>蕴含水魔力的魔法铁锭</t>
+  </si>
+  <si>
+    <t>金魔锭</t>
+  </si>
+  <si>
+    <t>item_1000007</t>
+  </si>
+  <si>
+    <t>蕴含金魔力的魔法铁锭</t>
+  </si>
+  <si>
+    <t>木魔锭</t>
+  </si>
+  <si>
+    <t>item_1000008</t>
+  </si>
+  <si>
+    <t>蕴含木魔力的魔法铁锭</t>
+  </si>
+  <si>
+    <t>土魔锭</t>
+  </si>
+  <si>
+    <t>item_1000009</t>
+  </si>
+  <si>
+    <t>蕴含土魔力的魔法铁锭</t>
+  </si>
+  <si>
+    <t>火魔锭</t>
+  </si>
+  <si>
+    <t>item_1000010</t>
+  </si>
+  <si>
+    <t>蕴含火魔力的魔法铁锭</t>
+  </si>
+  <si>
+    <t>水魔石</t>
+  </si>
+  <si>
+    <t>item_1000011</t>
+  </si>
+  <si>
+    <t>蕴含水魔力的魔法矿石</t>
+  </si>
+  <si>
+    <t>金魔石</t>
+  </si>
+  <si>
+    <t>item_1000012</t>
+  </si>
+  <si>
+    <t>蕴含金魔力的魔法矿石</t>
+  </si>
+  <si>
+    <t>木魔石</t>
+  </si>
+  <si>
+    <t>item_1000013</t>
+  </si>
+  <si>
+    <t>蕴含木魔力的魔法矿石</t>
+  </si>
+  <si>
+    <t>土魔石</t>
+  </si>
+  <si>
+    <t>item_1000014</t>
+  </si>
+  <si>
+    <t>蕴含土魔力的魔法矿石</t>
+  </si>
+  <si>
+    <t>火魔石</t>
+  </si>
+  <si>
+    <t>item_1000015</t>
+  </si>
+  <si>
+    <t>蕴含火魔力的魔法矿石</t>
   </si>
 </sst>
 </file>
@@ -228,8 +354,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,8 +366,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +489,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,113 +509,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,30 +710,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,10 +730,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -648,6 +748,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +779,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +830,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,15 +1312,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1225,28 +1352,392 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>10001</v>
+        <v>1000001</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1234</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>999</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3000001</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3000003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>999</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3000004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>999</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3000005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3000006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1000007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3000007</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1000008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3000008</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3000009</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3000010</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3000011</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3000012</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3000013</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>999</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3000014</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1000015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3000015</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-道具配置表.xlsx
+++ b/other/配置表/d-道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="12795"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,8 +353,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -366,6 +366,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -375,14 +473,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,120 +509,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,31 +519,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,151 +603,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,15 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -752,15 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -772,6 +754,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,11 +804,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,133 +830,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/other/配置表/d-道具配置表.xlsx
+++ b/other/配置表/d-道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>id</t>
   </si>
@@ -212,6 +212,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>extra</t>
+  </si>
+  <si>
     <t>水魔尘</t>
   </si>
   <si>
@@ -345,6 +348,15 @@
   </si>
   <si>
     <t>蕴含火魔力的魔法矿石</t>
+  </si>
+  <si>
+    <t>合成卷轴1</t>
+  </si>
+  <si>
+    <t>打开后随机获得一种合成公式</t>
+  </si>
+  <si>
+    <t>4，5，6，7</t>
   </si>
 </sst>
 </file>
@@ -354,8 +366,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -367,7 +379,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,10 +401,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,16 +455,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,66 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -486,27 +515,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -519,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +722,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -761,52 +817,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,16 +842,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,115 +860,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,19 +1324,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,13 +1362,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1000001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1370,18 +1386,21 @@
         <v>3000001</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1000002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1396,18 +1415,21 @@
         <v>3000002</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1000003</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1422,18 +1444,21 @@
         <v>3000003</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1000004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1448,18 +1473,21 @@
         <v>3000004</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1000005</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1474,18 +1502,21 @@
         <v>3000005</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1000006</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1500,18 +1531,21 @@
         <v>3000006</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1000007</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1526,18 +1560,21 @@
         <v>3000007</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1000008</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1552,18 +1589,21 @@
         <v>3000008</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1000009</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1578,18 +1618,21 @@
         <v>3000009</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1000010</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1604,18 +1647,21 @@
         <v>3000010</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1000011</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1630,18 +1676,21 @@
         <v>3000011</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1000012</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1656,18 +1705,21 @@
         <v>3000012</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1000013</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1682,18 +1734,21 @@
         <v>3000013</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1000014</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1708,18 +1763,21 @@
         <v>3000014</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1000015</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1734,10 +1792,42 @@
         <v>3000015</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1999999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>999</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3000015</v>
+      </c>
+      <c r="G17" t="s">
         <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-道具配置表.xlsx
+++ b/other/配置表/d-道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -378,8 +378,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,134 +515,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -531,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,37 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,17 +764,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +811,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +842,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>

--- a/other/配置表/d-道具配置表.xlsx
+++ b/other/配置表/d-道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <t>打开后随机获得一种合成公式</t>
   </si>
   <si>
-    <t>4，5，6，7</t>
+    <t>4,5,6,7</t>
   </si>
 </sst>
 </file>
@@ -365,14 +365,66 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,21 +439,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,6 +483,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -430,14 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -447,67 +508,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -531,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,17 +725,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +739,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,11 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +814,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -830,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,76 +842,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -920,55 +920,55 @@
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
